--- a/log_history/Y2_B2526_Pharmacology_scanner1766580164521_901aee219bebe21925aca952c79642f158d164dea351aed0a023920f60f3c22f.xlsx
+++ b/log_history/Y2_B2526_Pharmacology_scanner1766580164521_901aee219bebe21925aca952c79642f158d164dea351aed0a023920f60f3c22f.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Pharmacology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Pharmacology_scanner1766580164521_901aee219bebe21925aca952c79642f158d164dea351aed0a023920f60f3c22f.xlsx
+++ b/log_history/Y2_B2526_Pharmacology_scanner1766580164521_901aee219bebe21925aca952c79642f158d164dea351aed0a023920f60f3c22f.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Pharmacology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
